--- a/REGULAR/CCR/ANGCAYA, RUFINA.xlsx
+++ b/REGULAR/CCR/ANGCAYA, RUFINA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="312">
   <si>
     <t>PERIOD</t>
   </si>
@@ -961,6 +961,15 @@
   </si>
   <si>
     <t>UT(0-1-1)</t>
+  </si>
+  <si>
+    <t>10/23,24/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/27,28/2023</t>
   </si>
 </sst>
 </file>
@@ -3368,7 +3377,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K587" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K589" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3746,12 +3755,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K587"/>
+  <dimension ref="A2:K589"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="3570" topLeftCell="A540" activePane="bottomLeft"/>
+      <pane ySplit="3570" topLeftCell="A552" activePane="bottomLeft"/>
       <selection activeCell="B10" sqref="B10"/>
-      <selection pane="bottomLeft" activeCell="I558" sqref="I558"/>
+      <selection pane="bottomLeft" activeCell="J565" sqref="J565"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3912,7 +3921,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>186.21000000000004</v>
+        <v>184.96000000000004</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3922,7 +3931,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>185.625</v>
+        <v>188.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -16311,13 +16320,15 @@
       <c r="B558" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="C558" s="13"/>
+      <c r="C558" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D558" s="39"/>
       <c r="E558" s="9"/>
       <c r="F558" s="20"/>
-      <c r="G558" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G558" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H558" s="39">
         <v>1</v>
@@ -16332,45 +16343,63 @@
       <c r="A559" s="40">
         <v>45200</v>
       </c>
-      <c r="B559" s="20"/>
-      <c r="C559" s="13"/>
-      <c r="D559" s="39"/>
+      <c r="B559" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C559" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D559" s="39">
+        <v>2</v>
+      </c>
       <c r="E559" s="9"/>
       <c r="F559" s="20"/>
-      <c r="G559" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G559" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H559" s="39"/>
       <c r="I559" s="9"/>
       <c r="J559" s="11"/>
-      <c r="K559" s="20"/>
+      <c r="K559" s="20" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>45231</v>
       </c>
-      <c r="B560" s="20"/>
-      <c r="C560" s="13"/>
+      <c r="B560" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C560" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D560" s="39"/>
       <c r="E560" s="9"/>
       <c r="F560" s="20"/>
-      <c r="G560" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H560" s="39"/>
+      <c r="G560" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H560" s="39">
+        <v>1</v>
+      </c>
       <c r="I560" s="9"/>
       <c r="J560" s="11"/>
-      <c r="K560" s="20"/>
+      <c r="K560" s="48">
+        <v>45244</v>
+      </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A561" s="40">
-        <v>45261</v>
-      </c>
-      <c r="B561" s="20"/>
+      <c r="A561" s="40"/>
+      <c r="B561" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="C561" s="13"/>
-      <c r="D561" s="39"/>
+      <c r="D561" s="39">
+        <v>1</v>
+      </c>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
       <c r="G561" s="13" t="str">
@@ -16380,15 +16409,21 @@
       <c r="H561" s="39"/>
       <c r="I561" s="9"/>
       <c r="J561" s="11"/>
-      <c r="K561" s="20"/>
+      <c r="K561" s="48">
+        <v>45272</v>
+      </c>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B562" s="20"/>
+        <v>45261</v>
+      </c>
+      <c r="B562" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C562" s="13"/>
-      <c r="D562" s="39"/>
+      <c r="D562" s="39">
+        <v>2</v>
+      </c>
       <c r="E562" s="9"/>
       <c r="F562" s="20"/>
       <c r="G562" s="13" t="str">
@@ -16398,11 +16433,13 @@
       <c r="H562" s="39"/>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
-      <c r="K562" s="20"/>
+      <c r="K562" s="20" t="s">
+        <v>311</v>
+      </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A563" s="40">
-        <v>45323</v>
+      <c r="A563" s="52" t="s">
+        <v>310</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13"/>
@@ -16420,7 +16457,7 @@
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13"/>
@@ -16438,7 +16475,7 @@
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13"/>
@@ -16456,7 +16493,7 @@
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B566" s="20"/>
       <c r="C566" s="13"/>
@@ -16474,7 +16511,7 @@
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B567" s="20"/>
       <c r="C567" s="13"/>
@@ -16492,7 +16529,7 @@
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B568" s="20"/>
       <c r="C568" s="13"/>
@@ -16510,7 +16547,7 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13"/>
@@ -16528,7 +16565,7 @@
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13"/>
@@ -16546,7 +16583,7 @@
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13"/>
@@ -16564,7 +16601,7 @@
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13"/>
@@ -16582,7 +16619,7 @@
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13"/>
@@ -16600,7 +16637,7 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13"/>
@@ -16618,7 +16655,7 @@
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13"/>
@@ -16636,7 +16673,7 @@
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13"/>
@@ -16654,7 +16691,7 @@
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13"/>
@@ -16672,7 +16709,7 @@
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13"/>
@@ -16690,7 +16727,7 @@
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B579" s="20"/>
       <c r="C579" s="13"/>
@@ -16707,7 +16744,9 @@
       <c r="K579" s="20"/>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A580" s="40"/>
+      <c r="A580" s="40">
+        <v>45778</v>
+      </c>
       <c r="B580" s="20"/>
       <c r="C580" s="13"/>
       <c r="D580" s="39"/>
@@ -16723,7 +16762,9 @@
       <c r="K580" s="20"/>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A581" s="40"/>
+      <c r="A581" s="40">
+        <v>45809</v>
+      </c>
       <c r="B581" s="20"/>
       <c r="C581" s="13"/>
       <c r="D581" s="39"/>
@@ -16819,20 +16860,52 @@
       <c r="K586" s="20"/>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A587" s="41"/>
-      <c r="B587" s="15"/>
-      <c r="C587" s="42"/>
-      <c r="D587" s="43"/>
+      <c r="A587" s="40"/>
+      <c r="B587" s="20"/>
+      <c r="C587" s="13"/>
+      <c r="D587" s="39"/>
       <c r="E587" s="9"/>
-      <c r="F587" s="15"/>
-      <c r="G587" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H587" s="43"/>
+      <c r="F587" s="20"/>
+      <c r="G587" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H587" s="39"/>
       <c r="I587" s="9"/>
-      <c r="J587" s="12"/>
-      <c r="K587" s="15"/>
+      <c r="J587" s="11"/>
+      <c r="K587" s="20"/>
+    </row>
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A588" s="40"/>
+      <c r="B588" s="20"/>
+      <c r="C588" s="13"/>
+      <c r="D588" s="39"/>
+      <c r="E588" s="9"/>
+      <c r="F588" s="20"/>
+      <c r="G588" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H588" s="39"/>
+      <c r="I588" s="9"/>
+      <c r="J588" s="11"/>
+      <c r="K588" s="20"/>
+    </row>
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A589" s="41"/>
+      <c r="B589" s="15"/>
+      <c r="C589" s="42"/>
+      <c r="D589" s="43"/>
+      <c r="E589" s="9"/>
+      <c r="F589" s="15"/>
+      <c r="G589" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H589" s="43"/>
+      <c r="I589" s="9"/>
+      <c r="J589" s="12"/>
+      <c r="K589" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
